--- a/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200217.xlsx
@@ -10833,8 +10833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11078,7 +11078,7 @@
       <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="13">
@@ -11131,7 +11131,7 @@
       <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="12" t="s">
         <v>74</v>
       </c>
       <c r="M4" s="13">
@@ -11178,7 +11178,7 @@
       <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="12" t="s">
         <v>102</v>
       </c>
       <c r="M5" s="13">
@@ -11225,7 +11225,7 @@
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="12" t="s">
         <v>131</v>
       </c>
       <c r="M6" s="13">
@@ -11272,7 +11272,7 @@
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="12" t="s">
         <v>160</v>
       </c>
       <c r="M7" s="13">
@@ -11322,7 +11322,7 @@
       <c r="F8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="12" t="s">
         <v>189</v>
       </c>
       <c r="I8" s="13">
@@ -11375,7 +11375,7 @@
       <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="12" t="s">
         <v>217</v>
       </c>
       <c r="J9" s="13">
@@ -11428,7 +11428,7 @@
       <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="12" t="s">
         <v>245</v>
       </c>
       <c r="M10" s="13">
@@ -11475,7 +11475,7 @@
       <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="12" t="s">
         <v>271</v>
       </c>
       <c r="M11" s="13">
@@ -11522,7 +11522,7 @@
       <c r="F12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="12" t="s">
         <v>297</v>
       </c>
       <c r="M12" s="13">
@@ -11569,7 +11569,7 @@
       <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="12" t="s">
         <v>320</v>
       </c>
       <c r="M13" s="13">
@@ -11616,7 +11616,7 @@
       <c r="F14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="12" t="s">
         <v>3287</v>
       </c>
       <c r="T14" s="15">

--- a/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200217.xlsx
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9319" uniqueCount="3312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9319" uniqueCount="3302">
   <si>
     <t>统计级别</t>
   </si>
@@ -10328,47 +10328,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24958.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24959.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24960.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24961.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24962.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24963.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24964.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24965.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24966.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24967.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24968.hrh</t>
-  </si>
-  <si>
-    <t>http://wjw.shanxi.gov.cn/wjywl02/24969.hrh</t>
-  </si>
-  <si>
     <t>手动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>陈志磊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wjw.shanxi.gov.cn/wjywl02/24957.hrh</t>
+  </si>
+  <si>
+    <t>http://wjw.shanxi.gov.cn/wjywl02/24957.hrh</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10833,8 +10804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G14"/>
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11050,10 +11021,10 @@
         <v>43879.4</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AD2" s="15"/>
       <c r="AI2" s="15"/>
@@ -11100,16 +11071,16 @@
         <v>3296</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>3298</v>
+        <v>3301</v>
       </c>
       <c r="Z3" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="409.5">
@@ -11147,16 +11118,16 @@
         <v>3296</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="Z4" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="409.5">
@@ -11200,10 +11171,10 @@
         <v>43879.4</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="409.5">
@@ -11241,16 +11212,16 @@
         <v>3296</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="Z6" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="409.5">
@@ -11291,16 +11262,16 @@
         <v>3296</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="Z7" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="409.5">
@@ -11344,16 +11315,16 @@
         <v>3296</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="Z8" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="409.5">
@@ -11397,16 +11368,16 @@
         <v>3296</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>3304</v>
+        <v>3300</v>
       </c>
       <c r="Z9" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="409.5">
@@ -11444,16 +11415,16 @@
         <v>3296</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>3305</v>
+        <v>3300</v>
       </c>
       <c r="Z10" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="409.5">
@@ -11491,16 +11462,16 @@
         <v>3296</v>
       </c>
       <c r="V11" s="21" t="s">
-        <v>3306</v>
+        <v>3300</v>
       </c>
       <c r="Z11" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="409.5">
@@ -11538,16 +11509,16 @@
         <v>3296</v>
       </c>
       <c r="V12" s="21" t="s">
-        <v>3307</v>
+        <v>3300</v>
       </c>
       <c r="Z12" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="409.5">
@@ -11585,16 +11556,16 @@
         <v>3296</v>
       </c>
       <c r="V13" s="21" t="s">
-        <v>3308</v>
+        <v>3300</v>
       </c>
       <c r="Z13" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA13" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB13" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="409.5">
@@ -11626,16 +11597,16 @@
         <v>3296</v>
       </c>
       <c r="V14" s="21" t="s">
-        <v>3309</v>
+        <v>3300</v>
       </c>
       <c r="Z14" s="15">
         <v>43879.4</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
     </row>
   </sheetData>
@@ -11676,10 +11647,21 @@
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="V3:V13" r:id="rId2" display="http://wjw.shanxi.gov.cn/wjywl02/24957.hrh"/>
-    <hyperlink ref="V14" r:id="rId3" display="http://wjw.shanxi.gov.cn/wjywl02/24957.hrh"/>
+    <hyperlink ref="V3" r:id="rId3"/>
+    <hyperlink ref="V4" r:id="rId4"/>
+    <hyperlink ref="V6" r:id="rId5"/>
+    <hyperlink ref="V8" r:id="rId6"/>
+    <hyperlink ref="V10" r:id="rId7"/>
+    <hyperlink ref="V12" r:id="rId8"/>
+    <hyperlink ref="V14" r:id="rId9"/>
+    <hyperlink ref="V5" r:id="rId10"/>
+    <hyperlink ref="V7" r:id="rId11"/>
+    <hyperlink ref="V9" r:id="rId12"/>
+    <hyperlink ref="V11" r:id="rId13"/>
+    <hyperlink ref="V13" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200217.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\疫情数据收集\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10804,8 +10804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -10966,7 +10966,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="409.5">
+    <row r="2" spans="1:40" ht="16" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -11589,6 +11589,9 @@
       </c>
       <c r="G14" s="12" t="s">
         <v>3287</v>
+      </c>
+      <c r="K14" s="13">
+        <v>3</v>
       </c>
       <c r="T14" s="15">
         <v>43879.109305497688</v>

--- a/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200217.xlsx
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9319" uniqueCount="3302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9319" uniqueCount="3303">
   <si>
     <t>统计级别</t>
   </si>
@@ -10340,6 +10340,15 @@
   </si>
   <si>
     <t>http://wjw.shanxi.gov.cn/wjywl02/24957.hrh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年2月18日山西省新型冠状病毒肺炎疫情情况
+发布时间： 2020-02-18 02:37:24   发布人：本站编辑   文章来源：本站原创  浏览34869次
+       7
+2020年2月17日0时至24时，山西省报告新增新型冠状病毒肺炎确诊病例1例，累计确诊病例130例。新增治愈出院3例，累计治愈出院53例。现有在院隔离治疗77例，其中重症4例，危重症4例。新增疑似病例6例，现有疑似病例26例。目前累计追踪到密切接触者3973人，当日解除医学观察81人，共有467人正在接受医学观察。
+单位：例
+微信图片_20200218023425.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10804,8 +10813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="P14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11011,7 +11020,7 @@
         <v>43879.109305555554</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>3296</v>
+        <v>3302</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>3297</v>
@@ -11030,7 +11039,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40" ht="409.5">
+    <row r="3" spans="1:40" ht="16" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11115,7 +11124,7 @@
         <v>43879.109305555554</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>3296</v>
+        <v>3302</v>
       </c>
       <c r="V4" s="21" t="s">
         <v>3300</v>
@@ -11209,7 +11218,7 @@
         <v>43879.109305497688</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>3296</v>
+        <v>3302</v>
       </c>
       <c r="V6" s="21" t="s">
         <v>3300</v>
@@ -11312,7 +11321,7 @@
         <v>43879.109305497688</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>3296</v>
+        <v>3302</v>
       </c>
       <c r="V8" s="21" t="s">
         <v>3300</v>
@@ -11403,16 +11412,16 @@
         <v>245</v>
       </c>
       <c r="M10" s="13">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O10" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T10" s="15">
         <v>43879.109305497688</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>3296</v>
+        <v>3302</v>
       </c>
       <c r="V10" s="21" t="s">
         <v>3300</v>
@@ -11450,10 +11459,10 @@
         <v>271</v>
       </c>
       <c r="M11" s="13">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="O11" s="13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T11" s="15">
         <v>43879.109305497688</v>
@@ -11506,7 +11515,7 @@
         <v>43879.109305497688</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>3296</v>
+        <v>3302</v>
       </c>
       <c r="V12" s="21" t="s">
         <v>3300</v>
@@ -11597,7 +11606,7 @@
         <v>43879.109305497688</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>3296</v>
+        <v>3302</v>
       </c>
       <c r="V14" s="21" t="s">
         <v>3300</v>
